--- a/src/main/resources/templates/Template_Import_Syllabus.xlsx
+++ b/src/main/resources/templates/Template_Import_Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\Project\fms-backend-api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D4C47-8560-40F2-825C-45A68624BE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930C084-D4AC-433E-9D72-2C4688B8005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ScheduleDetail!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ScheduleDetail!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -284,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="174">
   <si>
     <t>Topic Name</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Assignment</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>AAAAAH/rVCM=</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>Technical Group</t>
-  </si>
-  <si>
-    <t>Seminar/Workshop</t>
   </si>
   <si>
     <t>Class Meeting</t>
@@ -625,9 +619,6 @@
 ----------------------
 40% theory (to do in 1h) 
 60% practice (to do in 3.0 h)</t>
-  </si>
-  <si>
-    <t>Session</t>
   </si>
   <si>
     <t>2.0</t>
@@ -1545,7 +1536,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -1561,22 +1552,9 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1610,71 +1588,281 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="12" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1682,233 +1870,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="12" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2336,583 +2302,583 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="20" customWidth="1"/>
-    <col min="2" max="256" width="8.77734375" style="20"/>
-    <col min="257" max="257" width="3" style="20" customWidth="1"/>
-    <col min="258" max="512" width="8.77734375" style="20"/>
-    <col min="513" max="513" width="3" style="20" customWidth="1"/>
-    <col min="514" max="768" width="8.77734375" style="20"/>
-    <col min="769" max="769" width="3" style="20" customWidth="1"/>
-    <col min="770" max="1024" width="8.77734375" style="20"/>
-    <col min="1025" max="1025" width="3" style="20" customWidth="1"/>
-    <col min="1026" max="1280" width="8.77734375" style="20"/>
-    <col min="1281" max="1281" width="3" style="20" customWidth="1"/>
-    <col min="1282" max="1536" width="8.77734375" style="20"/>
-    <col min="1537" max="1537" width="3" style="20" customWidth="1"/>
-    <col min="1538" max="1792" width="8.77734375" style="20"/>
-    <col min="1793" max="1793" width="3" style="20" customWidth="1"/>
-    <col min="1794" max="2048" width="8.77734375" style="20"/>
-    <col min="2049" max="2049" width="3" style="20" customWidth="1"/>
-    <col min="2050" max="2304" width="8.77734375" style="20"/>
-    <col min="2305" max="2305" width="3" style="20" customWidth="1"/>
-    <col min="2306" max="2560" width="8.77734375" style="20"/>
-    <col min="2561" max="2561" width="3" style="20" customWidth="1"/>
-    <col min="2562" max="2816" width="8.77734375" style="20"/>
-    <col min="2817" max="2817" width="3" style="20" customWidth="1"/>
-    <col min="2818" max="3072" width="8.77734375" style="20"/>
-    <col min="3073" max="3073" width="3" style="20" customWidth="1"/>
-    <col min="3074" max="3328" width="8.77734375" style="20"/>
-    <col min="3329" max="3329" width="3" style="20" customWidth="1"/>
-    <col min="3330" max="3584" width="8.77734375" style="20"/>
-    <col min="3585" max="3585" width="3" style="20" customWidth="1"/>
-    <col min="3586" max="3840" width="8.77734375" style="20"/>
-    <col min="3841" max="3841" width="3" style="20" customWidth="1"/>
-    <col min="3842" max="4096" width="8.77734375" style="20"/>
-    <col min="4097" max="4097" width="3" style="20" customWidth="1"/>
-    <col min="4098" max="4352" width="8.77734375" style="20"/>
-    <col min="4353" max="4353" width="3" style="20" customWidth="1"/>
-    <col min="4354" max="4608" width="8.77734375" style="20"/>
-    <col min="4609" max="4609" width="3" style="20" customWidth="1"/>
-    <col min="4610" max="4864" width="8.77734375" style="20"/>
-    <col min="4865" max="4865" width="3" style="20" customWidth="1"/>
-    <col min="4866" max="5120" width="8.77734375" style="20"/>
-    <col min="5121" max="5121" width="3" style="20" customWidth="1"/>
-    <col min="5122" max="5376" width="8.77734375" style="20"/>
-    <col min="5377" max="5377" width="3" style="20" customWidth="1"/>
-    <col min="5378" max="5632" width="8.77734375" style="20"/>
-    <col min="5633" max="5633" width="3" style="20" customWidth="1"/>
-    <col min="5634" max="5888" width="8.77734375" style="20"/>
-    <col min="5889" max="5889" width="3" style="20" customWidth="1"/>
-    <col min="5890" max="6144" width="8.77734375" style="20"/>
-    <col min="6145" max="6145" width="3" style="20" customWidth="1"/>
-    <col min="6146" max="6400" width="8.77734375" style="20"/>
-    <col min="6401" max="6401" width="3" style="20" customWidth="1"/>
-    <col min="6402" max="6656" width="8.77734375" style="20"/>
-    <col min="6657" max="6657" width="3" style="20" customWidth="1"/>
-    <col min="6658" max="6912" width="8.77734375" style="20"/>
-    <col min="6913" max="6913" width="3" style="20" customWidth="1"/>
-    <col min="6914" max="7168" width="8.77734375" style="20"/>
-    <col min="7169" max="7169" width="3" style="20" customWidth="1"/>
-    <col min="7170" max="7424" width="8.77734375" style="20"/>
-    <col min="7425" max="7425" width="3" style="20" customWidth="1"/>
-    <col min="7426" max="7680" width="8.77734375" style="20"/>
-    <col min="7681" max="7681" width="3" style="20" customWidth="1"/>
-    <col min="7682" max="7936" width="8.77734375" style="20"/>
-    <col min="7937" max="7937" width="3" style="20" customWidth="1"/>
-    <col min="7938" max="8192" width="8.77734375" style="20"/>
-    <col min="8193" max="8193" width="3" style="20" customWidth="1"/>
-    <col min="8194" max="8448" width="8.77734375" style="20"/>
-    <col min="8449" max="8449" width="3" style="20" customWidth="1"/>
-    <col min="8450" max="8704" width="8.77734375" style="20"/>
-    <col min="8705" max="8705" width="3" style="20" customWidth="1"/>
-    <col min="8706" max="8960" width="8.77734375" style="20"/>
-    <col min="8961" max="8961" width="3" style="20" customWidth="1"/>
-    <col min="8962" max="9216" width="8.77734375" style="20"/>
-    <col min="9217" max="9217" width="3" style="20" customWidth="1"/>
-    <col min="9218" max="9472" width="8.77734375" style="20"/>
-    <col min="9473" max="9473" width="3" style="20" customWidth="1"/>
-    <col min="9474" max="9728" width="8.77734375" style="20"/>
-    <col min="9729" max="9729" width="3" style="20" customWidth="1"/>
-    <col min="9730" max="9984" width="8.77734375" style="20"/>
-    <col min="9985" max="9985" width="3" style="20" customWidth="1"/>
-    <col min="9986" max="10240" width="8.77734375" style="20"/>
-    <col min="10241" max="10241" width="3" style="20" customWidth="1"/>
-    <col min="10242" max="10496" width="8.77734375" style="20"/>
-    <col min="10497" max="10497" width="3" style="20" customWidth="1"/>
-    <col min="10498" max="10752" width="8.77734375" style="20"/>
-    <col min="10753" max="10753" width="3" style="20" customWidth="1"/>
-    <col min="10754" max="11008" width="8.77734375" style="20"/>
-    <col min="11009" max="11009" width="3" style="20" customWidth="1"/>
-    <col min="11010" max="11264" width="8.77734375" style="20"/>
-    <col min="11265" max="11265" width="3" style="20" customWidth="1"/>
-    <col min="11266" max="11520" width="8.77734375" style="20"/>
-    <col min="11521" max="11521" width="3" style="20" customWidth="1"/>
-    <col min="11522" max="11776" width="8.77734375" style="20"/>
-    <col min="11777" max="11777" width="3" style="20" customWidth="1"/>
-    <col min="11778" max="12032" width="8.77734375" style="20"/>
-    <col min="12033" max="12033" width="3" style="20" customWidth="1"/>
-    <col min="12034" max="12288" width="8.77734375" style="20"/>
-    <col min="12289" max="12289" width="3" style="20" customWidth="1"/>
-    <col min="12290" max="12544" width="8.77734375" style="20"/>
-    <col min="12545" max="12545" width="3" style="20" customWidth="1"/>
-    <col min="12546" max="12800" width="8.77734375" style="20"/>
-    <col min="12801" max="12801" width="3" style="20" customWidth="1"/>
-    <col min="12802" max="13056" width="8.77734375" style="20"/>
-    <col min="13057" max="13057" width="3" style="20" customWidth="1"/>
-    <col min="13058" max="13312" width="8.77734375" style="20"/>
-    <col min="13313" max="13313" width="3" style="20" customWidth="1"/>
-    <col min="13314" max="13568" width="8.77734375" style="20"/>
-    <col min="13569" max="13569" width="3" style="20" customWidth="1"/>
-    <col min="13570" max="13824" width="8.77734375" style="20"/>
-    <col min="13825" max="13825" width="3" style="20" customWidth="1"/>
-    <col min="13826" max="14080" width="8.77734375" style="20"/>
-    <col min="14081" max="14081" width="3" style="20" customWidth="1"/>
-    <col min="14082" max="14336" width="8.77734375" style="20"/>
-    <col min="14337" max="14337" width="3" style="20" customWidth="1"/>
-    <col min="14338" max="14592" width="8.77734375" style="20"/>
-    <col min="14593" max="14593" width="3" style="20" customWidth="1"/>
-    <col min="14594" max="14848" width="8.77734375" style="20"/>
-    <col min="14849" max="14849" width="3" style="20" customWidth="1"/>
-    <col min="14850" max="15104" width="8.77734375" style="20"/>
-    <col min="15105" max="15105" width="3" style="20" customWidth="1"/>
-    <col min="15106" max="15360" width="8.77734375" style="20"/>
-    <col min="15361" max="15361" width="3" style="20" customWidth="1"/>
-    <col min="15362" max="15616" width="8.77734375" style="20"/>
-    <col min="15617" max="15617" width="3" style="20" customWidth="1"/>
-    <col min="15618" max="15872" width="8.77734375" style="20"/>
-    <col min="15873" max="15873" width="3" style="20" customWidth="1"/>
-    <col min="15874" max="16128" width="8.77734375" style="20"/>
-    <col min="16129" max="16129" width="3" style="20" customWidth="1"/>
-    <col min="16130" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="3" style="15" customWidth="1"/>
+    <col min="2" max="256" width="8.77734375" style="15"/>
+    <col min="257" max="257" width="3" style="15" customWidth="1"/>
+    <col min="258" max="512" width="8.77734375" style="15"/>
+    <col min="513" max="513" width="3" style="15" customWidth="1"/>
+    <col min="514" max="768" width="8.77734375" style="15"/>
+    <col min="769" max="769" width="3" style="15" customWidth="1"/>
+    <col min="770" max="1024" width="8.77734375" style="15"/>
+    <col min="1025" max="1025" width="3" style="15" customWidth="1"/>
+    <col min="1026" max="1280" width="8.77734375" style="15"/>
+    <col min="1281" max="1281" width="3" style="15" customWidth="1"/>
+    <col min="1282" max="1536" width="8.77734375" style="15"/>
+    <col min="1537" max="1537" width="3" style="15" customWidth="1"/>
+    <col min="1538" max="1792" width="8.77734375" style="15"/>
+    <col min="1793" max="1793" width="3" style="15" customWidth="1"/>
+    <col min="1794" max="2048" width="8.77734375" style="15"/>
+    <col min="2049" max="2049" width="3" style="15" customWidth="1"/>
+    <col min="2050" max="2304" width="8.77734375" style="15"/>
+    <col min="2305" max="2305" width="3" style="15" customWidth="1"/>
+    <col min="2306" max="2560" width="8.77734375" style="15"/>
+    <col min="2561" max="2561" width="3" style="15" customWidth="1"/>
+    <col min="2562" max="2816" width="8.77734375" style="15"/>
+    <col min="2817" max="2817" width="3" style="15" customWidth="1"/>
+    <col min="2818" max="3072" width="8.77734375" style="15"/>
+    <col min="3073" max="3073" width="3" style="15" customWidth="1"/>
+    <col min="3074" max="3328" width="8.77734375" style="15"/>
+    <col min="3329" max="3329" width="3" style="15" customWidth="1"/>
+    <col min="3330" max="3584" width="8.77734375" style="15"/>
+    <col min="3585" max="3585" width="3" style="15" customWidth="1"/>
+    <col min="3586" max="3840" width="8.77734375" style="15"/>
+    <col min="3841" max="3841" width="3" style="15" customWidth="1"/>
+    <col min="3842" max="4096" width="8.77734375" style="15"/>
+    <col min="4097" max="4097" width="3" style="15" customWidth="1"/>
+    <col min="4098" max="4352" width="8.77734375" style="15"/>
+    <col min="4353" max="4353" width="3" style="15" customWidth="1"/>
+    <col min="4354" max="4608" width="8.77734375" style="15"/>
+    <col min="4609" max="4609" width="3" style="15" customWidth="1"/>
+    <col min="4610" max="4864" width="8.77734375" style="15"/>
+    <col min="4865" max="4865" width="3" style="15" customWidth="1"/>
+    <col min="4866" max="5120" width="8.77734375" style="15"/>
+    <col min="5121" max="5121" width="3" style="15" customWidth="1"/>
+    <col min="5122" max="5376" width="8.77734375" style="15"/>
+    <col min="5377" max="5377" width="3" style="15" customWidth="1"/>
+    <col min="5378" max="5632" width="8.77734375" style="15"/>
+    <col min="5633" max="5633" width="3" style="15" customWidth="1"/>
+    <col min="5634" max="5888" width="8.77734375" style="15"/>
+    <col min="5889" max="5889" width="3" style="15" customWidth="1"/>
+    <col min="5890" max="6144" width="8.77734375" style="15"/>
+    <col min="6145" max="6145" width="3" style="15" customWidth="1"/>
+    <col min="6146" max="6400" width="8.77734375" style="15"/>
+    <col min="6401" max="6401" width="3" style="15" customWidth="1"/>
+    <col min="6402" max="6656" width="8.77734375" style="15"/>
+    <col min="6657" max="6657" width="3" style="15" customWidth="1"/>
+    <col min="6658" max="6912" width="8.77734375" style="15"/>
+    <col min="6913" max="6913" width="3" style="15" customWidth="1"/>
+    <col min="6914" max="7168" width="8.77734375" style="15"/>
+    <col min="7169" max="7169" width="3" style="15" customWidth="1"/>
+    <col min="7170" max="7424" width="8.77734375" style="15"/>
+    <col min="7425" max="7425" width="3" style="15" customWidth="1"/>
+    <col min="7426" max="7680" width="8.77734375" style="15"/>
+    <col min="7681" max="7681" width="3" style="15" customWidth="1"/>
+    <col min="7682" max="7936" width="8.77734375" style="15"/>
+    <col min="7937" max="7937" width="3" style="15" customWidth="1"/>
+    <col min="7938" max="8192" width="8.77734375" style="15"/>
+    <col min="8193" max="8193" width="3" style="15" customWidth="1"/>
+    <col min="8194" max="8448" width="8.77734375" style="15"/>
+    <col min="8449" max="8449" width="3" style="15" customWidth="1"/>
+    <col min="8450" max="8704" width="8.77734375" style="15"/>
+    <col min="8705" max="8705" width="3" style="15" customWidth="1"/>
+    <col min="8706" max="8960" width="8.77734375" style="15"/>
+    <col min="8961" max="8961" width="3" style="15" customWidth="1"/>
+    <col min="8962" max="9216" width="8.77734375" style="15"/>
+    <col min="9217" max="9217" width="3" style="15" customWidth="1"/>
+    <col min="9218" max="9472" width="8.77734375" style="15"/>
+    <col min="9473" max="9473" width="3" style="15" customWidth="1"/>
+    <col min="9474" max="9728" width="8.77734375" style="15"/>
+    <col min="9729" max="9729" width="3" style="15" customWidth="1"/>
+    <col min="9730" max="9984" width="8.77734375" style="15"/>
+    <col min="9985" max="9985" width="3" style="15" customWidth="1"/>
+    <col min="9986" max="10240" width="8.77734375" style="15"/>
+    <col min="10241" max="10241" width="3" style="15" customWidth="1"/>
+    <col min="10242" max="10496" width="8.77734375" style="15"/>
+    <col min="10497" max="10497" width="3" style="15" customWidth="1"/>
+    <col min="10498" max="10752" width="8.77734375" style="15"/>
+    <col min="10753" max="10753" width="3" style="15" customWidth="1"/>
+    <col min="10754" max="11008" width="8.77734375" style="15"/>
+    <col min="11009" max="11009" width="3" style="15" customWidth="1"/>
+    <col min="11010" max="11264" width="8.77734375" style="15"/>
+    <col min="11265" max="11265" width="3" style="15" customWidth="1"/>
+    <col min="11266" max="11520" width="8.77734375" style="15"/>
+    <col min="11521" max="11521" width="3" style="15" customWidth="1"/>
+    <col min="11522" max="11776" width="8.77734375" style="15"/>
+    <col min="11777" max="11777" width="3" style="15" customWidth="1"/>
+    <col min="11778" max="12032" width="8.77734375" style="15"/>
+    <col min="12033" max="12033" width="3" style="15" customWidth="1"/>
+    <col min="12034" max="12288" width="8.77734375" style="15"/>
+    <col min="12289" max="12289" width="3" style="15" customWidth="1"/>
+    <col min="12290" max="12544" width="8.77734375" style="15"/>
+    <col min="12545" max="12545" width="3" style="15" customWidth="1"/>
+    <col min="12546" max="12800" width="8.77734375" style="15"/>
+    <col min="12801" max="12801" width="3" style="15" customWidth="1"/>
+    <col min="12802" max="13056" width="8.77734375" style="15"/>
+    <col min="13057" max="13057" width="3" style="15" customWidth="1"/>
+    <col min="13058" max="13312" width="8.77734375" style="15"/>
+    <col min="13313" max="13313" width="3" style="15" customWidth="1"/>
+    <col min="13314" max="13568" width="8.77734375" style="15"/>
+    <col min="13569" max="13569" width="3" style="15" customWidth="1"/>
+    <col min="13570" max="13824" width="8.77734375" style="15"/>
+    <col min="13825" max="13825" width="3" style="15" customWidth="1"/>
+    <col min="13826" max="14080" width="8.77734375" style="15"/>
+    <col min="14081" max="14081" width="3" style="15" customWidth="1"/>
+    <col min="14082" max="14336" width="8.77734375" style="15"/>
+    <col min="14337" max="14337" width="3" style="15" customWidth="1"/>
+    <col min="14338" max="14592" width="8.77734375" style="15"/>
+    <col min="14593" max="14593" width="3" style="15" customWidth="1"/>
+    <col min="14594" max="14848" width="8.77734375" style="15"/>
+    <col min="14849" max="14849" width="3" style="15" customWidth="1"/>
+    <col min="14850" max="15104" width="8.77734375" style="15"/>
+    <col min="15105" max="15105" width="3" style="15" customWidth="1"/>
+    <col min="15106" max="15360" width="8.77734375" style="15"/>
+    <col min="15361" max="15361" width="3" style="15" customWidth="1"/>
+    <col min="15362" max="15616" width="8.77734375" style="15"/>
+    <col min="15617" max="15617" width="3" style="15" customWidth="1"/>
+    <col min="15618" max="15872" width="8.77734375" style="15"/>
+    <col min="15873" max="15873" width="3" style="15" customWidth="1"/>
+    <col min="15874" max="16128" width="8.77734375" style="15"/>
+    <col min="16129" max="16129" width="3" style="15" customWidth="1"/>
+    <col min="16130" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="14.4">
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="2:15" ht="14.4">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="14.4">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="2:15" ht="15.6">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="2:15" ht="14.4">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="14.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="2:15" ht="14.4">
-      <c r="B7" s="25"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="2:15" ht="14.4">
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="2:15" ht="14.4">
-      <c r="B9" s="25"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="2:15" ht="14.4">
-      <c r="B10" s="25"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="2:15" s="26" customFormat="1" ht="17.399999999999999">
-      <c r="B11" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="97"/>
-    </row>
-    <row r="12" spans="2:15" s="26" customFormat="1" ht="18">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15" s="26" customFormat="1" ht="24.6">
-      <c r="B13" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="100"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" s="21" customFormat="1" ht="17.399999999999999">
+      <c r="B11" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="92"/>
+    </row>
+    <row r="12" spans="2:15" s="21" customFormat="1" ht="18">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="2:15" s="21" customFormat="1" ht="24.6">
+      <c r="B13" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="95"/>
     </row>
     <row r="14" spans="2:15" ht="14.4">
-      <c r="B14" s="25"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="2:15" ht="14.4">
-      <c r="B15" s="25"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="2:15" ht="14.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="2:15" ht="24" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="101" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="2:15" ht="24" customHeight="1">
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="2:15" ht="24" customHeight="1">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103" t="s">
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="2:15" ht="24" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="2:15" ht="24" customHeight="1">
-      <c r="B19" s="25"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="2:15" ht="14.4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" spans="2:15" ht="14.4">
-      <c r="B21" s="25"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="2:15" ht="14.4">
-      <c r="B22" s="25"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="2:15" ht="14.4">
-      <c r="B23" s="25"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="2:15" ht="14.4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="2:15" ht="14.4">
-      <c r="B25" s="25"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
     </row>
     <row r="26" spans="2:15" ht="14.4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="27" spans="2:15" ht="14.4">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2941,432 +2907,432 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="14" customWidth="1"/>
-    <col min="7" max="10" width="9.109375" style="14" customWidth="1"/>
-    <col min="11" max="16" width="9.109375" style="14"/>
-    <col min="17" max="17" width="9.109375" style="14" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="14"/>
+    <col min="1" max="1" width="4.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="9" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" style="9" customWidth="1"/>
+    <col min="11" max="16" width="9.109375" style="9"/>
+    <col min="17" max="17" width="9.109375" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="115" t="str">
         <f>C3&amp;" "&amp;"Syllabus"</f>
         <v>TEST Syllabus</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A2" s="81">
+      <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="117"/>
+      <c r="B2" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A3" s="83">
+      <c r="A3" s="77">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="114" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="C3" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A4" s="83">
+      <c r="A4" s="77">
         <v>3</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="C4" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="83">
+      <c r="A5" s="77">
         <v>4</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="112">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="120"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
     </row>
     <row r="6" spans="1:6" ht="32.4" customHeight="1">
-      <c r="A6" s="110">
+      <c r="A6" s="116">
         <v>5</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="80">
         <v>4</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="80">
         <v>15</v>
       </c>
-      <c r="F6" s="87" t="s">
-        <v>170</v>
+      <c r="F6" s="81" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="85" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="80">
         <v>2</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="80">
         <v>15</v>
       </c>
-      <c r="F7" s="87" t="s">
-        <v>171</v>
+      <c r="F7" s="81" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="85" t="s">
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="80">
+        <v>1</v>
+      </c>
+      <c r="E8" s="82">
+        <v>28</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="80">
+        <v>1</v>
+      </c>
+      <c r="E9" s="82">
+        <v>42</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="46.2" customHeight="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="86">
-        <v>1</v>
-      </c>
-      <c r="E8" s="88">
-        <v>28</v>
-      </c>
-      <c r="F8" s="135" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="85" t="s">
+      <c r="D10" s="80">
+        <v>6</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="105"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="86">
-        <v>1</v>
-      </c>
-      <c r="E9" s="88">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="135" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="46.2" customHeight="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="86">
-        <v>6</v>
-      </c>
-      <c r="E10" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="122"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="34" t="s">
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="35" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="35" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="35" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="35" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="35" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="35" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="35" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="35" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="35" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="35" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="35" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="35" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="35" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="35" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="35" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="35" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="35" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="35" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="35" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="30" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -3391,1851 +3357,1605 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="8" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="51.5546875" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="51.5546875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A1" s="132" t="str">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A1" s="118" t="str">
         <f>Syllabus!C3 &amp; " - Training Schedule"</f>
         <v>TEST - Training Schedule</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+    </row>
+    <row r="2" spans="1:8" ht="39" customHeight="1">
+      <c r="A2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="121">
+        <v>1</v>
+      </c>
+      <c r="B3" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="125">
-        <v>1</v>
-      </c>
-      <c r="B3" s="123" t="s">
+      <c r="D3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="37">
+        <v>60</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="79.2">
+      <c r="A4" s="122"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="129">
-        <v>1</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="D4" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="38">
+        <v>120</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="79.2">
+      <c r="A5" s="122"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="D5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.4">
+      <c r="A6" s="122"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="43">
+      <c r="D6" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="38">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="158.4">
+      <c r="A7" s="122"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="43">
+        <v>120</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="79.2">
+      <c r="A8" s="122"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="44">
+        <v>120</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.4">
+      <c r="A9" s="122"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="46">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="121">
+        <v>2</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="37">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="132">
+      <c r="A11" s="122"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43">
+        <v>180</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="79.2">
+      <c r="A12" s="122"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="44">
+        <v>240</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.4">
+      <c r="A13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="38">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="121">
+        <v>3</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="38">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="122"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="37">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" ht="39.6">
+      <c r="A16" s="122"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="37">
+        <v>180</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="79.2">
+      <c r="A17" s="122"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="44">
         <v>60</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="79.2">
-      <c r="A4" s="126"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="41" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="52.8">
+      <c r="A18" s="122"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="44">
+        <v>180</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.4">
+      <c r="A19" s="122"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D19" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="38">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="121">
+        <v>4</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="37">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="39.6">
+      <c r="A21" s="122"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="44">
+      <c r="F21" s="37">
+        <v>180</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="79.2">
+      <c r="A22" s="122"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="44">
+        <v>60</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="52.8">
+      <c r="A23" s="122"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="44">
+        <v>180</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="26.4">
+      <c r="A24" s="122"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="38">
+        <v>40</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="121">
+        <v>5</v>
+      </c>
+      <c r="B25" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="37">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="79.2">
+      <c r="A26" s="122"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="10">
+        <v>180</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="26.4">
+      <c r="A27" s="122"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10">
+        <v>90</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="79.2">
+      <c r="A28" s="122"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="10">
+        <v>170</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="26.4">
+      <c r="A29" s="122"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="121">
+        <v>6</v>
+      </c>
+      <c r="B30" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="37">
+        <v>20</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="52.8">
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6">
+        <v>160</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="39.6">
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>80</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="79.2">
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="44">
+        <v>90</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="52.8">
+      <c r="A34" s="122"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="38">
+        <v>90</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="122"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="38">
+        <v>40</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="69"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="121">
+        <v>7</v>
+      </c>
+      <c r="B36" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="37">
+        <v>20</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="122"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="38">
+        <v>20</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="39.6">
+      <c r="A38" s="122"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>160</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="122"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6">
+        <v>80</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="52.8">
+      <c r="A40" s="122"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="44">
+        <v>180</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="26.4">
+      <c r="A41" s="122"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="38">
+        <v>20</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="121">
+        <v>8</v>
+      </c>
+      <c r="B42" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="37">
+        <v>20</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="52.8">
+      <c r="A43" s="122"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="6">
+        <v>160</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="39.6">
+      <c r="A44" s="122"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="6">
+        <v>90</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="52.8">
+      <c r="A45" s="122"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="44">
+        <v>180</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="26.4">
+      <c r="A46" s="122"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="38">
+        <v>30</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="121">
+        <v>9</v>
+      </c>
+      <c r="B47" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="37">
+        <v>20</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="122"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="38">
+        <v>20</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="57" customHeight="1">
+      <c r="A49" s="122"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="6">
+        <v>140</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="39.6">
+      <c r="A50" s="122"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6">
+        <v>160</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="52.8">
+      <c r="A51" s="122"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="44">
         <v>120</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="79.2">
-      <c r="A5" s="126"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="131">
-        <v>2</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="41" t="s">
+      <c r="G51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="26.4">
+      <c r="A52" s="122"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D52" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="38">
+        <v>20</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="52.8" customHeight="1">
+      <c r="A53" s="121">
+        <v>10</v>
+      </c>
+      <c r="B53" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="37">
+        <v>20</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="122"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="43">
+        <v>90</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="79.2">
+      <c r="A55" s="122"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="44">
-        <v>30</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F55" s="44">
+        <v>70</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="68" t="s">
+    </row>
+    <row r="56" spans="1:10" ht="13.8">
+      <c r="A56" s="122"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="44">
+        <v>100</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="52.8">
+      <c r="A57" s="122"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="44">
+        <v>180</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="26.4">
+      <c r="A58" s="122"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="38">
+        <v>20</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.4">
-      <c r="A6" s="126"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" s="121">
+        <v>11</v>
+      </c>
+      <c r="B59" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="37">
+        <v>20</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="122"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="38">
+        <v>20</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="122"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="43">
+        <v>60</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="26.4">
+      <c r="A62" s="122"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="43">
+        <v>60</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="26.4">
+      <c r="A63" s="122"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="43">
+        <v>20</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="122"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="58">
+        <v>150</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" s="72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="126"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="58">
+        <v>150</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H65" s="72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1">
+      <c r="A66" s="121">
+        <v>12</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="44">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="158.4">
-      <c r="A7" s="126"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="49">
-        <v>120</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="79.2">
-      <c r="A8" s="126"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="50">
-        <v>120</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.4">
-      <c r="A9" s="126"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="52">
-        <v>20</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="125">
-        <v>2</v>
-      </c>
-      <c r="B10" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="129">
-        <v>3</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="43">
-        <v>20</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="132">
-      <c r="A11" s="126"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="49">
+      <c r="F66" s="38">
         <v>180</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="79.2">
-      <c r="A12" s="126"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="131">
-        <v>4</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="50">
-        <v>240</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26.4">
-      <c r="A13" s="126"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="44">
-        <v>40</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="125">
-        <v>3</v>
-      </c>
-      <c r="B14" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="129">
-        <v>5</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="44">
-        <v>20</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="126"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="43">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="66"/>
-    </row>
-    <row r="16" spans="1:9" ht="39.6">
-      <c r="A16" s="126"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="43">
+      <c r="G66" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1">
+      <c r="A67" s="122"/>
+      <c r="B67" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="43">
+        <v>60</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" s="70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1">
+      <c r="A68" s="126"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="43">
         <v>180</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="79.2">
-      <c r="A17" s="126"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129">
-        <v>6</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="50">
-        <v>60</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="52.8">
-      <c r="A18" s="126"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="50">
-        <v>180</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="26.4">
-      <c r="A19" s="126"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="44">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="125">
-        <v>4</v>
-      </c>
-      <c r="B20" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="129">
-        <v>7</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="43">
-        <v>20</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="39.6">
-      <c r="A21" s="126"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="43">
-        <v>180</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="79.2">
-      <c r="A22" s="126"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="131">
-        <v>8</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="50">
-        <v>60</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="52.8">
-      <c r="A23" s="126"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="50">
-        <v>180</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="26.4">
-      <c r="A24" s="126"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="44">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="125">
-        <v>5</v>
-      </c>
-      <c r="B25" s="123" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="129">
-        <v>9</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="43">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="79.2">
-      <c r="A26" s="126"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="15">
-        <v>180</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="26.4">
-      <c r="A27" s="126"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="131">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="15">
-        <v>90</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="79.2">
-      <c r="A28" s="126"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="15">
-        <v>170</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="26.4">
-      <c r="A29" s="126"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="15">
-        <v>20</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="125">
-        <v>6</v>
-      </c>
-      <c r="B30" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="129">
-        <v>11</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="43">
-        <v>20</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="52.8">
-      <c r="A31" s="126"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="6">
-        <v>160</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="39.6">
-      <c r="A32" s="126"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="129">
-        <v>12</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="6">
-        <v>80</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="79.2">
-      <c r="A33" s="126"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="50">
-        <v>90</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" s="74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="52.8">
-      <c r="A34" s="126"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="44">
-        <v>90</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="126"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="44">
-        <v>40</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="75"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="125">
-        <v>7</v>
-      </c>
-      <c r="B36" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="123">
-        <v>13</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="43">
-        <v>20</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="126"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="44">
-        <v>20</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="39.6">
-      <c r="A38" s="126"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="6">
-        <v>160</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="126"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128">
-        <v>14</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="6">
-        <v>80</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="52.8">
-      <c r="A40" s="126"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="50">
-        <v>180</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="26.4">
-      <c r="A41" s="126"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="44">
-        <v>20</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="125">
-        <v>8</v>
-      </c>
-      <c r="B42" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="123">
-        <v>15</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="43">
-        <v>20</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="52.8">
-      <c r="A43" s="126"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="6">
-        <v>160</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="39.6">
-      <c r="A44" s="126"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128">
-        <v>16</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="6">
-        <v>90</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="52.8">
-      <c r="A45" s="126"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="50">
-        <v>180</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="26.4">
-      <c r="A46" s="126"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="44">
-        <v>30</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I46" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="125">
-        <v>9</v>
-      </c>
-      <c r="B47" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="123">
-        <v>17</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="43">
-        <v>20</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="126"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="44">
-        <v>20</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I48" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="57" customHeight="1">
-      <c r="A49" s="126"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="6">
-        <v>140</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I49" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="39.6">
-      <c r="A50" s="126"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="123">
-        <v>18</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6">
-        <v>160</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="52.8">
-      <c r="A51" s="126"/>
-      <c r="B51" s="128"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="50">
-        <v>120</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="26.4">
-      <c r="A52" s="126"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="44">
-        <v>20</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I52" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="52.8" customHeight="1">
-      <c r="A53" s="125">
-        <v>10</v>
-      </c>
-      <c r="B53" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="123">
-        <v>19</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="43">
-        <v>20</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="126"/>
-      <c r="B54" s="128"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="49">
-        <v>90</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I54" s="76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="79.2">
-      <c r="A55" s="126"/>
-      <c r="B55" s="128"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="50">
-        <v>70</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I55" s="68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="13.8">
-      <c r="A56" s="126"/>
-      <c r="B56" s="128"/>
-      <c r="C56" s="123">
-        <v>20</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="50">
-        <v>100</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I56" s="68" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="52.8">
-      <c r="A57" s="126"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="50">
-        <v>180</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I57" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="26.4">
-      <c r="A58" s="126"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="44">
-        <v>20</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="125">
-        <v>11</v>
-      </c>
-      <c r="B59" s="123" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="123">
-        <v>21</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="43">
-        <v>20</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I59" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="126"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="44">
-        <v>20</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="K60" s="16"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="126"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="49">
-        <v>60</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I61" s="76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="26.4">
-      <c r="A62" s="126"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="49">
-        <v>60</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="26.4">
-      <c r="A63" s="126"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="49">
-        <v>20</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I63" s="77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="126"/>
-      <c r="B64" s="128"/>
-      <c r="C64" s="123">
-        <v>22</v>
-      </c>
-      <c r="D64" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="64">
-        <v>150</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I64" s="78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="127"/>
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="64">
-        <v>150</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" s="78" t="s">
+      <c r="G68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" s="70" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1">
-      <c r="A66" s="125">
-        <v>12</v>
-      </c>
-      <c r="B66" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="41">
-        <v>23</v>
-      </c>
-      <c r="D66" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="44">
-        <v>180</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" s="69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1">
-      <c r="A67" s="126"/>
-      <c r="B67" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="128">
-        <v>24</v>
-      </c>
-      <c r="D67" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="49">
-        <v>60</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" s="76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1">
-      <c r="A68" s="127"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="49">
-        <v>180</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" s="76" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="F70" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="10">
-        <f t="shared" ref="G70:G76" si="0">SUMIF(F$3:F$68,F70,G$3:G$68)</f>
-        <v>2220</v>
-      </c>
-      <c r="H70" s="11">
-        <f t="shared" ref="H70:H76" si="1">G70/$G$77</f>
-        <v>0.38947368421052631</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="F71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" s="10">
-        <f t="shared" si="0"/>
-        <v>2260</v>
-      </c>
-      <c r="H71" s="11">
-        <f t="shared" si="1"/>
-        <v>0.39649122807017545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="F72" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="10">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="H72" s="11">
-        <f t="shared" si="1"/>
-        <v>0.11228070175438597</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="F73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="10">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="H73" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4035087719298246E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="F74" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="10">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="H74" s="11">
-        <f t="shared" si="1"/>
-        <v>4.2105263157894736E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="F75" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="F76" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="10">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="H76" s="11">
-        <f t="shared" si="1"/>
-        <v>4.5614035087719301E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="F77" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="12">
-        <f>SUM(G70:G76)</f>
-        <v>5700</v>
-      </c>
-      <c r="H77" s="13">
-        <f>SUM(H70:H76)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="48">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C9"/>
+  <mergeCells count="25">
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H68" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G68" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Online,Offline,Blended,Virtual training,Hybrid,Homework"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F68" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E68" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Concept/Lecture, Assignment/Lab, Test/Quiz, Exam, Guides/Review, Seminar/Workshop, Class Meeting"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I63" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H63" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.44" right="0.70866141732283505" top="0.47" bottom="0.55000000000000004" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToHeight="2" orientation="landscape" r:id="rId2"/>
@@ -8477,13 +8197,13 @@
         <v>#REF!</v>
       </c>
       <c r="AJ4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AM4" t="e">
         <f>IF("N",[0]!_xlnm._FilterDatabase,"AAAAAH/rVCY=")</f>

--- a/src/main/resources/templates/Template_Import_Syllabus.xlsx
+++ b/src/main/resources/templates/Template_Import_Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\Project\fms-backend-api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930C084-D4AC-433E-9D72-2C4688B8005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1288C0CB-C690-4188-9686-F8FD6BB9DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,6 +1807,15 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,14 +1849,23 @@
     <xf numFmtId="165" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,24 +1874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2907,7 +2907,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2925,15 +2925,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="115" t="str">
+      <c r="A1" s="104" t="str">
         <f>C3&amp;" "&amp;"Syllabus"</f>
         <v>TEST Syllabus</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1">
       <c r="A2" s="75">
@@ -2942,12 +2942,12 @@
       <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1">
       <c r="A3" s="77">
@@ -2956,12 +2956,12 @@
       <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1">
       <c r="A4" s="77">
@@ -2970,12 +2970,12 @@
       <c r="B4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -2984,18 +2984,18 @@
       <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="112">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
+      <c r="C5" s="115">
+        <v>49</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" spans="1:6" ht="32.4" customHeight="1">
-      <c r="A6" s="116">
+      <c r="A6" s="105">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="79" t="s">
@@ -3012,8 +3012,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="79" t="s">
         <v>10</v>
       </c>
@@ -3028,8 +3028,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="79" t="s">
         <v>29</v>
       </c>
@@ -3044,8 +3044,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="79" t="s">
         <v>30</v>
       </c>
@@ -3060,18 +3060,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="46.2" customHeight="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="83" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="80">
         <v>6</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="108"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="29" t="s">
@@ -3360,7 +3360,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -3377,23 +3377,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A1" s="118" t="str">
+      <c r="A1" s="124" t="str">
         <f>Syllabus!C3 &amp; " - Training Schedule"</f>
         <v>TEST - Training Schedule</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="31" t="s">
         <v>13</v>
       </c>
@@ -3414,10 +3414,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="121">
+      <c r="A3" s="118">
         <v>1</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="121" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3440,8 +3440,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="79.2">
-      <c r="A4" s="122"/>
-      <c r="B4" s="124"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="5" t="s">
         <v>84</v>
       </c>
@@ -3462,8 +3462,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="79.2">
-      <c r="A5" s="122"/>
-      <c r="B5" s="124"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="39" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3484,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.4">
-      <c r="A6" s="122"/>
-      <c r="B6" s="124"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="39" t="s">
         <v>86</v>
       </c>
@@ -3506,8 +3506,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="158.4">
-      <c r="A7" s="122"/>
-      <c r="B7" s="124"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="40" t="s">
         <v>87</v>
       </c>
@@ -3528,8 +3528,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="79.2">
-      <c r="A8" s="122"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="39" t="s">
         <v>88</v>
       </c>
@@ -3550,8 +3550,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.4">
-      <c r="A9" s="122"/>
-      <c r="B9" s="124"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="45" t="s">
         <v>86</v>
       </c>
@@ -3572,10 +3572,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="121">
+      <c r="A10" s="118">
         <v>2</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="121" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -3598,8 +3598,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="132">
-      <c r="A11" s="122"/>
-      <c r="B11" s="124"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
@@ -3620,8 +3620,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="79.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="39" t="s">
         <v>92</v>
       </c>
@@ -3642,8 +3642,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.4">
-      <c r="A13" s="122"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="39" t="s">
         <v>86</v>
       </c>
@@ -3664,10 +3664,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="121">
+      <c r="A14" s="118">
         <v>3</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="121" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -3690,8 +3690,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="122"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="47" t="s">
         <v>90</v>
       </c>
@@ -3710,8 +3710,8 @@
       <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="39.6">
-      <c r="A16" s="122"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="47" t="s">
         <v>95</v>
       </c>
@@ -3732,8 +3732,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="79.2">
-      <c r="A17" s="122"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="39" t="s">
         <v>96</v>
       </c>
@@ -3754,8 +3754,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="52.8">
-      <c r="A18" s="122"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="39" t="s">
         <v>97</v>
       </c>
@@ -3776,8 +3776,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="26.4">
-      <c r="A19" s="122"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="39" t="s">
         <v>86</v>
       </c>
@@ -3798,10 +3798,10 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="121">
+      <c r="A20" s="118">
         <v>4</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="121" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -3824,8 +3824,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="39.6">
-      <c r="A21" s="122"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="47" t="s">
         <v>99</v>
       </c>
@@ -3846,8 +3846,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="79.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="39" t="s">
         <v>100</v>
       </c>
@@ -3868,8 +3868,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="52.8">
-      <c r="A23" s="122"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
       </c>
@@ -3890,8 +3890,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="26.4">
-      <c r="A24" s="122"/>
-      <c r="B24" s="124"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="39" t="s">
         <v>86</v>
       </c>
@@ -3912,10 +3912,10 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="121">
+      <c r="A25" s="118">
         <v>5</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="121" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="47" t="s">
@@ -3938,8 +3938,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="79.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="124"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="49" t="s">
         <v>103</v>
       </c>
@@ -3960,8 +3960,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="26.4">
-      <c r="A27" s="122"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="3" t="s">
         <v>105</v>
       </c>
@@ -3982,8 +3982,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="79.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="39" t="s">
         <v>106</v>
       </c>
@@ -4004,8 +4004,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="26.4">
-      <c r="A29" s="122"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="39" t="s">
         <v>86</v>
       </c>
@@ -4026,10 +4026,10 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="121">
+      <c r="A30" s="118">
         <v>6</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="121" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="47" t="s">
@@ -4052,8 +4052,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="52.8">
-      <c r="A31" s="122"/>
-      <c r="B31" s="122"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="50" t="s">
         <v>155</v>
       </c>
@@ -4074,8 +4074,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="39.6">
-      <c r="A32" s="122"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="73" t="s">
         <v>156</v>
       </c>
@@ -4096,8 +4096,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="79.2">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="51" t="s">
         <v>108</v>
       </c>
@@ -4118,8 +4118,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="52.8">
-      <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="39" t="s">
         <v>109</v>
       </c>
@@ -4140,8 +4140,8 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="122"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="39" t="s">
         <v>86</v>
       </c>
@@ -4160,10 +4160,10 @@
       <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="121">
+      <c r="A36" s="118">
         <v>7</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="121" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -4186,8 +4186,8 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="122"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="48" t="s">
         <v>111</v>
       </c>
@@ -4208,8 +4208,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="39.6">
-      <c r="A38" s="122"/>
-      <c r="B38" s="124"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="50" t="s">
         <v>160</v>
       </c>
@@ -4230,8 +4230,8 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="122"/>
-      <c r="B39" s="124"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="50" t="s">
         <v>159</v>
       </c>
@@ -4252,8 +4252,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="52.8">
-      <c r="A40" s="122"/>
-      <c r="B40" s="124"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="39" t="s">
         <v>112</v>
       </c>
@@ -4274,8 +4274,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.4">
-      <c r="A41" s="122"/>
-      <c r="B41" s="124"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="39" t="s">
         <v>86</v>
       </c>
@@ -4296,10 +4296,10 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="121">
+      <c r="A42" s="118">
         <v>8</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="121" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -4322,8 +4322,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="52.8">
-      <c r="A43" s="122"/>
-      <c r="B43" s="124"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="50" t="s">
         <v>161</v>
       </c>
@@ -4344,8 +4344,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="39.6">
-      <c r="A44" s="122"/>
-      <c r="B44" s="124"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="50" t="s">
         <v>162</v>
       </c>
@@ -4366,8 +4366,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="52.8">
-      <c r="A45" s="122"/>
-      <c r="B45" s="124"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="39" t="s">
         <v>114</v>
       </c>
@@ -4388,8 +4388,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="26.4">
-      <c r="A46" s="122"/>
-      <c r="B46" s="124"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="39" t="s">
         <v>86</v>
       </c>
@@ -4410,10 +4410,10 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="121">
+      <c r="A47" s="118">
         <v>9</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="121" t="s">
         <v>115</v>
       </c>
       <c r="C47" s="34" t="s">
@@ -4436,8 +4436,8 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="122"/>
-      <c r="B48" s="124"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="48" t="s">
         <v>116</v>
       </c>
@@ -4458,8 +4458,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="57" customHeight="1">
-      <c r="A49" s="122"/>
-      <c r="B49" s="124"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="50" t="s">
         <v>163</v>
       </c>
@@ -4480,8 +4480,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="39.6">
-      <c r="A50" s="122"/>
-      <c r="B50" s="124"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="50" t="s">
         <v>164</v>
       </c>
@@ -4502,8 +4502,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="52.8">
-      <c r="A51" s="122"/>
-      <c r="B51" s="124"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="39" t="s">
         <v>117</v>
       </c>
@@ -4524,8 +4524,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="26.4">
-      <c r="A52" s="122"/>
-      <c r="B52" s="124"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="122"/>
       <c r="C52" s="39" t="s">
         <v>86</v>
       </c>
@@ -4546,10 +4546,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A53" s="121">
+      <c r="A53" s="118">
         <v>10</v>
       </c>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="121" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="34" t="s">
@@ -4572,8 +4572,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="122"/>
-      <c r="B54" s="124"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="49" t="s">
         <v>118</v>
       </c>
@@ -4594,8 +4594,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="79.2">
-      <c r="A55" s="122"/>
-      <c r="B55" s="124"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="122"/>
       <c r="C55" s="39" t="s">
         <v>119</v>
       </c>
@@ -4616,8 +4616,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.8">
-      <c r="A56" s="122"/>
-      <c r="B56" s="124"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="122"/>
       <c r="C56" s="39" t="s">
         <v>165</v>
       </c>
@@ -4638,8 +4638,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="52.8">
-      <c r="A57" s="122"/>
-      <c r="B57" s="124"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="39" t="s">
         <v>120</v>
       </c>
@@ -4660,8 +4660,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="26.4">
-      <c r="A58" s="122"/>
-      <c r="B58" s="124"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="39" t="s">
         <v>86</v>
       </c>
@@ -4682,10 +4682,10 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="121">
+      <c r="A59" s="118">
         <v>11</v>
       </c>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="121" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="54" t="s">
@@ -4708,8 +4708,8 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="122"/>
-      <c r="B60" s="124"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="48" t="s">
         <v>122</v>
       </c>
@@ -4731,8 +4731,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="122"/>
-      <c r="B61" s="124"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="122"/>
       <c r="C61" s="49" t="s">
         <v>121</v>
       </c>
@@ -4753,8 +4753,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="26.4">
-      <c r="A62" s="122"/>
-      <c r="B62" s="124"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="122"/>
       <c r="C62" s="39" t="s">
         <v>123</v>
       </c>
@@ -4775,8 +4775,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="26.4">
-      <c r="A63" s="122"/>
-      <c r="B63" s="124"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="39" t="s">
         <v>124</v>
       </c>
@@ -4797,8 +4797,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="122"/>
-      <c r="B64" s="124"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="122"/>
       <c r="C64" s="55" t="s">
         <v>125</v>
       </c>
@@ -4819,8 +4819,8 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="126"/>
-      <c r="B65" s="125"/>
+      <c r="A65" s="120"/>
+      <c r="B65" s="123"/>
       <c r="C65" s="55" t="s">
         <v>18</v>
       </c>
@@ -4841,7 +4841,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="121">
+      <c r="A66" s="118">
         <v>12</v>
       </c>
       <c r="B66" s="53" t="s">
@@ -4867,7 +4867,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1">
-      <c r="A67" s="122"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="52" t="s">
         <v>128</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="126"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="74"/>
       <c r="C68" s="49" t="s">
         <v>130</v>
@@ -4915,6 +4915,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="A59:A65"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A42:A46"/>
@@ -4924,22 +4940,6 @@
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/src/main/resources/templates/Template_Import_Syllabus.xlsx
+++ b/src/main/resources/templates/Template_Import_Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\Project\fms-backend-api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1288C0CB-C690-4188-9686-F8FD6BB9DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5D4FFC-735B-4545-910D-BB24F1142922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="175">
   <si>
     <t>Topic Name</t>
   </si>
@@ -971,6 +971,9 @@
   </si>
   <si>
     <t>TEEST</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
 </sst>
 </file>
@@ -1855,26 +1858,26 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2907,7 +2910,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2984,8 +2987,8 @@
       <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="115">
-        <v>49</v>
+      <c r="C5" s="115" t="s">
+        <v>174</v>
       </c>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
@@ -3377,23 +3380,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A1" s="124" t="str">
+      <c r="A1" s="122" t="str">
         <f>Syllabus!C3 &amp; " - Training Schedule"</f>
         <v>TEST - Training Schedule</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="31" t="s">
         <v>13</v>
       </c>
@@ -3417,7 +3420,7 @@
       <c r="A3" s="118">
         <v>1</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3441,7 +3444,7 @@
     </row>
     <row r="4" spans="1:8" ht="79.2">
       <c r="A4" s="119"/>
-      <c r="B4" s="122"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="5" t="s">
         <v>84</v>
       </c>
@@ -3463,7 +3466,7 @@
     </row>
     <row r="5" spans="1:8" ht="79.2">
       <c r="A5" s="119"/>
-      <c r="B5" s="122"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="39" t="s">
         <v>85</v>
       </c>
@@ -3485,7 +3488,7 @@
     </row>
     <row r="6" spans="1:8" ht="26.4">
       <c r="A6" s="119"/>
-      <c r="B6" s="122"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="39" t="s">
         <v>86</v>
       </c>
@@ -3507,7 +3510,7 @@
     </row>
     <row r="7" spans="1:8" ht="158.4">
       <c r="A7" s="119"/>
-      <c r="B7" s="122"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="40" t="s">
         <v>87</v>
       </c>
@@ -3529,7 +3532,7 @@
     </row>
     <row r="8" spans="1:8" ht="79.2">
       <c r="A8" s="119"/>
-      <c r="B8" s="122"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="39" t="s">
         <v>88</v>
       </c>
@@ -3551,7 +3554,7 @@
     </row>
     <row r="9" spans="1:8" ht="26.4">
       <c r="A9" s="119"/>
-      <c r="B9" s="122"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="45" t="s">
         <v>86</v>
       </c>
@@ -3575,7 +3578,7 @@
       <c r="A10" s="118">
         <v>2</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="120" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -3599,7 +3602,7 @@
     </row>
     <row r="11" spans="1:8" ht="132">
       <c r="A11" s="119"/>
-      <c r="B11" s="122"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
@@ -3621,7 +3624,7 @@
     </row>
     <row r="12" spans="1:8" ht="79.2">
       <c r="A12" s="119"/>
-      <c r="B12" s="122"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="39" t="s">
         <v>92</v>
       </c>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="13" spans="1:8" ht="26.4">
       <c r="A13" s="119"/>
-      <c r="B13" s="122"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="39" t="s">
         <v>86</v>
       </c>
@@ -3667,7 +3670,7 @@
       <c r="A14" s="118">
         <v>3</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="120" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -3691,7 +3694,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="119"/>
-      <c r="B15" s="122"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="47" t="s">
         <v>90</v>
       </c>
@@ -3711,7 +3714,7 @@
     </row>
     <row r="16" spans="1:8" ht="39.6">
       <c r="A16" s="119"/>
-      <c r="B16" s="122"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="47" t="s">
         <v>95</v>
       </c>
@@ -3733,7 +3736,7 @@
     </row>
     <row r="17" spans="1:8" ht="79.2">
       <c r="A17" s="119"/>
-      <c r="B17" s="122"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="39" t="s">
         <v>96</v>
       </c>
@@ -3755,7 +3758,7 @@
     </row>
     <row r="18" spans="1:8" ht="52.8">
       <c r="A18" s="119"/>
-      <c r="B18" s="122"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="39" t="s">
         <v>97</v>
       </c>
@@ -3777,7 +3780,7 @@
     </row>
     <row r="19" spans="1:8" ht="26.4">
       <c r="A19" s="119"/>
-      <c r="B19" s="122"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="39" t="s">
         <v>86</v>
       </c>
@@ -3801,7 +3804,7 @@
       <c r="A20" s="118">
         <v>4</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="120" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -3825,7 +3828,7 @@
     </row>
     <row r="21" spans="1:8" ht="39.6">
       <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="47" t="s">
         <v>99</v>
       </c>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="22" spans="1:8" ht="79.2">
       <c r="A22" s="119"/>
-      <c r="B22" s="122"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="39" t="s">
         <v>100</v>
       </c>
@@ -3869,7 +3872,7 @@
     </row>
     <row r="23" spans="1:8" ht="52.8">
       <c r="A23" s="119"/>
-      <c r="B23" s="122"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
       </c>
@@ -3891,7 +3894,7 @@
     </row>
     <row r="24" spans="1:8" ht="26.4">
       <c r="A24" s="119"/>
-      <c r="B24" s="122"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="39" t="s">
         <v>86</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="A25" s="118">
         <v>5</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="120" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="47" t="s">
@@ -3939,7 +3942,7 @@
     </row>
     <row r="26" spans="1:8" ht="79.2">
       <c r="A26" s="119"/>
-      <c r="B26" s="122"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="49" t="s">
         <v>103</v>
       </c>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="27" spans="1:8" ht="26.4">
       <c r="A27" s="119"/>
-      <c r="B27" s="122"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="3" t="s">
         <v>105</v>
       </c>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="28" spans="1:8" ht="79.2">
       <c r="A28" s="119"/>
-      <c r="B28" s="122"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="39" t="s">
         <v>106</v>
       </c>
@@ -4005,7 +4008,7 @@
     </row>
     <row r="29" spans="1:8" ht="26.4">
       <c r="A29" s="119"/>
-      <c r="B29" s="122"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="39" t="s">
         <v>86</v>
       </c>
@@ -4029,7 +4032,7 @@
       <c r="A30" s="118">
         <v>6</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="120" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="47" t="s">
@@ -4163,7 +4166,7 @@
       <c r="A36" s="118">
         <v>7</v>
       </c>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="120" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -4187,7 +4190,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="119"/>
-      <c r="B37" s="122"/>
+      <c r="B37" s="121"/>
       <c r="C37" s="48" t="s">
         <v>111</v>
       </c>
@@ -4209,7 +4212,7 @@
     </row>
     <row r="38" spans="1:8" ht="39.6">
       <c r="A38" s="119"/>
-      <c r="B38" s="122"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="50" t="s">
         <v>160</v>
       </c>
@@ -4231,7 +4234,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="119"/>
-      <c r="B39" s="122"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="50" t="s">
         <v>159</v>
       </c>
@@ -4253,7 +4256,7 @@
     </row>
     <row r="40" spans="1:8" ht="52.8">
       <c r="A40" s="119"/>
-      <c r="B40" s="122"/>
+      <c r="B40" s="121"/>
       <c r="C40" s="39" t="s">
         <v>112</v>
       </c>
@@ -4275,7 +4278,7 @@
     </row>
     <row r="41" spans="1:8" ht="26.4">
       <c r="A41" s="119"/>
-      <c r="B41" s="122"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="39" t="s">
         <v>86</v>
       </c>
@@ -4299,7 +4302,7 @@
       <c r="A42" s="118">
         <v>8</v>
       </c>
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="120" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -4323,7 +4326,7 @@
     </row>
     <row r="43" spans="1:8" ht="52.8">
       <c r="A43" s="119"/>
-      <c r="B43" s="122"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="50" t="s">
         <v>161</v>
       </c>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="44" spans="1:8" ht="39.6">
       <c r="A44" s="119"/>
-      <c r="B44" s="122"/>
+      <c r="B44" s="121"/>
       <c r="C44" s="50" t="s">
         <v>162</v>
       </c>
@@ -4367,7 +4370,7 @@
     </row>
     <row r="45" spans="1:8" ht="52.8">
       <c r="A45" s="119"/>
-      <c r="B45" s="122"/>
+      <c r="B45" s="121"/>
       <c r="C45" s="39" t="s">
         <v>114</v>
       </c>
@@ -4389,7 +4392,7 @@
     </row>
     <row r="46" spans="1:8" ht="26.4">
       <c r="A46" s="119"/>
-      <c r="B46" s="122"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="39" t="s">
         <v>86</v>
       </c>
@@ -4413,7 +4416,7 @@
       <c r="A47" s="118">
         <v>9</v>
       </c>
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="120" t="s">
         <v>115</v>
       </c>
       <c r="C47" s="34" t="s">
@@ -4437,7 +4440,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="119"/>
-      <c r="B48" s="122"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="48" t="s">
         <v>116</v>
       </c>
@@ -4459,7 +4462,7 @@
     </row>
     <row r="49" spans="1:10" ht="57" customHeight="1">
       <c r="A49" s="119"/>
-      <c r="B49" s="122"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="50" t="s">
         <v>163</v>
       </c>
@@ -4481,7 +4484,7 @@
     </row>
     <row r="50" spans="1:10" ht="39.6">
       <c r="A50" s="119"/>
-      <c r="B50" s="122"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="50" t="s">
         <v>164</v>
       </c>
@@ -4503,7 +4506,7 @@
     </row>
     <row r="51" spans="1:10" ht="52.8">
       <c r="A51" s="119"/>
-      <c r="B51" s="122"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="39" t="s">
         <v>117</v>
       </c>
@@ -4525,7 +4528,7 @@
     </row>
     <row r="52" spans="1:10" ht="26.4">
       <c r="A52" s="119"/>
-      <c r="B52" s="122"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="39" t="s">
         <v>86</v>
       </c>
@@ -4549,7 +4552,7 @@
       <c r="A53" s="118">
         <v>10</v>
       </c>
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="120" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="34" t="s">
@@ -4573,7 +4576,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="119"/>
-      <c r="B54" s="122"/>
+      <c r="B54" s="121"/>
       <c r="C54" s="49" t="s">
         <v>118</v>
       </c>
@@ -4595,7 +4598,7 @@
     </row>
     <row r="55" spans="1:10" ht="79.2">
       <c r="A55" s="119"/>
-      <c r="B55" s="122"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="39" t="s">
         <v>119</v>
       </c>
@@ -4617,7 +4620,7 @@
     </row>
     <row r="56" spans="1:10" ht="13.8">
       <c r="A56" s="119"/>
-      <c r="B56" s="122"/>
+      <c r="B56" s="121"/>
       <c r="C56" s="39" t="s">
         <v>165</v>
       </c>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="57" spans="1:10" ht="52.8">
       <c r="A57" s="119"/>
-      <c r="B57" s="122"/>
+      <c r="B57" s="121"/>
       <c r="C57" s="39" t="s">
         <v>120</v>
       </c>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="58" spans="1:10" ht="26.4">
       <c r="A58" s="119"/>
-      <c r="B58" s="122"/>
+      <c r="B58" s="121"/>
       <c r="C58" s="39" t="s">
         <v>86</v>
       </c>
@@ -4685,7 +4688,7 @@
       <c r="A59" s="118">
         <v>11</v>
       </c>
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="120" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="54" t="s">
@@ -4709,7 +4712,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="119"/>
-      <c r="B60" s="122"/>
+      <c r="B60" s="121"/>
       <c r="C60" s="48" t="s">
         <v>122</v>
       </c>
@@ -4732,7 +4735,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="119"/>
-      <c r="B61" s="122"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="49" t="s">
         <v>121</v>
       </c>
@@ -4754,7 +4757,7 @@
     </row>
     <row r="62" spans="1:10" ht="26.4">
       <c r="A62" s="119"/>
-      <c r="B62" s="122"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="39" t="s">
         <v>123</v>
       </c>
@@ -4776,7 +4779,7 @@
     </row>
     <row r="63" spans="1:10" ht="26.4">
       <c r="A63" s="119"/>
-      <c r="B63" s="122"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="39" t="s">
         <v>124</v>
       </c>
@@ -4798,7 +4801,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="119"/>
-      <c r="B64" s="122"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="55" t="s">
         <v>125</v>
       </c>
@@ -4819,8 +4822,8 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="120"/>
-      <c r="B65" s="123"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="55" t="s">
         <v>18</v>
       </c>
@@ -4891,7 +4894,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="120"/>
+      <c r="A68" s="125"/>
       <c r="B68" s="74"/>
       <c r="C68" s="49" t="s">
         <v>130</v>
@@ -4915,22 +4918,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
     <mergeCell ref="A59:A65"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A42:A46"/>
@@ -4940,6 +4927,22 @@
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -5118,9 +5121,9 @@
         <f>AND(Syllabus!B5,"AAAAAH7b/yI=")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AJ1" t="b">
+      <c r="AJ1" t="e">
         <f>AND(Syllabus!C5,"AAAAAH7b/yM=")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AK1" t="e">
         <f>AND(Syllabus!D5,"AAAAAH7b/yQ=")</f>

--- a/src/main/resources/templates/Template_Import_Syllabus.xlsx
+++ b/src/main/resources/templates/Template_Import_Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\Project\fms-backend-api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5D4FFC-735B-4545-910D-BB24F1142922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17597D11-4C01-4549-A993-A156C2482504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,13 +967,13 @@
     <t>TRAINING TOPIC SYLLABUS</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>TEEST</t>
   </si>
   <si>
     <t>4.1</t>
+  </si>
+  <si>
+    <t>TESTthat</t>
   </si>
 </sst>
 </file>
@@ -2910,7 +2910,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2930,7 +2930,7 @@
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="104" t="str">
         <f>C3&amp;" "&amp;"Syllabus"</f>
-        <v>TEST Syllabus</v>
+        <v>TESTthat Syllabus</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D3" s="113"/>
       <c r="E3" s="113"/>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="113"/>
       <c r="E4" s="113"/>
@@ -2988,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
@@ -3382,7 +3382,7 @@
     <row r="1" spans="1:8" ht="36.75" customHeight="1">
       <c r="A1" s="122" t="str">
         <f>Syllabus!C3 &amp; " - Training Schedule"</f>
-        <v>TEST - Training Schedule</v>
+        <v>TESTthat - Training Schedule</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
